--- a/biology/Botanique/Scorpiurus_(plante)/Scorpiurus_(plante).xlsx
+++ b/biology/Botanique/Scorpiurus_(plante)/Scorpiurus_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Scorpiurus est un genre de plantes dicotylédones de la famille des Fabaceae (légumineuses), sous-famille des Faboideae, originaire du bassin méditerranéen, du Proche-Orient et d'Afrique orientale, qui comprend trois espèces acceptées[2]. 
-Ce sont des plantes herbacées qui se rencontrent dans les maquis méditerranéens, les prairies et lieux perturbés[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Scorpiurus est un genre de plantes dicotylédones de la famille des Fabaceae (légumineuses), sous-famille des Faboideae, originaire du bassin méditerranéen, du Proche-Orient et d'Afrique orientale, qui comprend trois espèces acceptées. 
+Ce sont des plantes herbacées qui se rencontrent dans les maquis méditerranéens, les prairies et lieux perturbés.
 Les feuilles et les gousses de Scorpiurus muricatus sont consommées comme garniture dans les salades.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom générique dérive de deux racines grecques : σκορπίος (scorpios), « scorpion » et οὐρά (oura), « queue », en référence à la forme de la gousse.
 </t>
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">D'après  Coste
 Calice en cloche, à cinq dents, les deux supérieures soudées jusque près du sommet ; carène terminée en bec acuminé ; étamines  diadelphes, à filets les plus longs dilatés au sommet ; gousse contournée en spirale, munie de 8 cotes longitudinales, couvertes d’épine ou tubercules, à 3-5 articles cylindracés, arqués, se séparant à la maturité. 
@@ -577,9 +593,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (21 décembre 2018)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (21 décembre 2018) :
 Scorpiurus minimus Losinsk.
 Scorpiurus muricatus L.
 Scorpiurus vermiculatus L.</t>
